--- a/Documents/Calcolo Utilizzazione.xlsx
+++ b/Documents/Calcolo Utilizzazione.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5432c06226f2998e/Universita/LM-Computer Engineering/PECSN/PECSN-Project/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documenti\OneDrive\Universita\LM-Computer Engineering\PECSN\PECSN-Project\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="8_{7C6B1B4E-6765-44AE-9011-3DDA248C307B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A9DF8AE0-703A-4F6B-AFEE-0DA4B967438A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5163EB8-663E-4D21-AB85-01A993F15C9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{6CA2E0AA-0133-4EF1-B5E8-AD8D784F3B19}"/>
   </bookViews>
@@ -139,13 +139,9 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CC4E2317-C62D-4FC3-8729-E98047D0F19A}" name="Tabella1" displayName="Tabella1" ref="B3:E11" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="B3:E11" xr:uid="{CC4E2317-C62D-4FC3-8729-E98047D0F19A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CC4E2317-C62D-4FC3-8729-E98047D0F19A}" name="Tabella1" displayName="Tabella1" ref="B3:E26" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="B3:E26" xr:uid="{CC4E2317-C62D-4FC3-8729-E98047D0F19A}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{2A779C70-B05D-4564-9E37-2EFFA2AC09A3}" name="SC"/>
     <tableColumn id="2" xr3:uid="{E6C8D15D-91E3-4376-B1AA-B7E8B9822473}" name="CPU">
@@ -459,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFB80710-4C35-42AE-97AD-C2D68AF7A1B1}">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -525,29 +521,30 @@
       </c>
       <c r="D4">
         <f>K4/H4</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E4">
         <f>L4/I4</f>
-        <v>1</v>
+        <v>13.333333333333334</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <f>G4</f>
+        <v>1000</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.45">
@@ -575,26 +572,26 @@
       </c>
       <c r="D6">
         <f>C6+D5*D$4</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E6">
         <f>D6+E5*E$4</f>
-        <v>3</v>
+        <v>18.333333333333336</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G6">
-        <f t="shared" ref="G6:I11" si="0">C$4*($E5/$E6)</f>
-        <v>0.33333333333333331</v>
+        <f t="shared" ref="G6:I21" si="0">C$4*($E5/$E6)</f>
+        <v>5.4545454545454536E-2</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0.21818181818181814</v>
       </c>
       <c r="I6">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0.72727272727272718</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.45">
@@ -608,23 +605,23 @@
       </c>
       <c r="D7">
         <f t="shared" ref="D7:D11" si="2">C7+D6*D$4</f>
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <f t="shared" ref="E7:E10" si="3">D7+E6*E$4</f>
-        <v>6</v>
+        <v>265.44444444444446</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>6.9066555043951455E-2</v>
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.27626622017580582</v>
       </c>
       <c r="I7">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.92088740058601948</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.45">
@@ -638,23 +635,23 @@
       </c>
       <c r="D8">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="E8">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>3624.2592592592596</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>7.3241019876347652E-2</v>
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>0.29296407950539061</v>
       </c>
       <c r="I8">
         <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>0.97654693168463536</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.45">
@@ -668,23 +665,23 @@
       </c>
       <c r="D9">
         <f>C9+D8*D$4</f>
-        <v>5</v>
+        <v>341</v>
       </c>
       <c r="E9">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>48664.456790123462</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <v>7.4474462437538386E-2</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <v>0.29789784975015354</v>
       </c>
       <c r="I9">
         <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <v>0.99299283250051185</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.45">
@@ -698,28 +695,28 @@
       </c>
       <c r="D10">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>1365</v>
       </c>
       <c r="E10">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>650224.42386831285</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>0.7142857142857143</v>
+        <v>7.4842554360860583E-2</v>
       </c>
       <c r="H10">
         <f t="shared" si="0"/>
-        <v>0.7142857142857143</v>
+        <v>0.29937021744344233</v>
       </c>
       <c r="I10">
         <f t="shared" si="0"/>
-        <v>0.7142857142857143</v>
+        <v>0.99790072481147452</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B11">
-        <f t="shared" si="4"/>
+        <f>B10+1</f>
         <v>6</v>
       </c>
       <c r="C11">
@@ -728,23 +725,473 @@
       </c>
       <c r="D11">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>5461</v>
       </c>
       <c r="E11">
         <f>D11+E10*E$4</f>
-        <v>28</v>
+        <v>8675119.9849108383</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>7.4952787396518727E-2</v>
       </c>
       <c r="H11">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>0.29981114958607491</v>
       </c>
       <c r="I11">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>0.99937049862024974</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B12">
+        <f t="shared" ref="B12:B26" si="5">B11+1</f>
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ref="C12:C22" si="6">POWER(C$4,B12)</f>
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ref="D12:D22" si="7">C12+D11*D$4</f>
+        <v>21845</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ref="E12:E22" si="8">D12+E11*E$4</f>
+        <v>115690111.46547785</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>7.4985838245125294E-2</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>0.29994335298050118</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>0.99981117660167063</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B13">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="7"/>
+        <v>87381</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="8"/>
+        <v>1542622200.5397048</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>7.4995751665574553E-2</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>0.29998300666229821</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>0.99994335554099412</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B14">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="7"/>
+        <v>349525</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="8"/>
+        <v>20568645532.196064</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>7.4998725517683745E-2</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>0.29999490207073498</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>0.99998300690245001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B15">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="7"/>
+        <v>1398101</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="8"/>
+        <v>274250005196.94754</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>7.4999617656980808E-2</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>0.29999847062792323</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>0.99999490209307751</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B16">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="7"/>
+        <v>5592405</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="8"/>
+        <v>3656672328364.3008</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>7.4999885297249144E-2</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>0.29999954118899658</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>0.99999847062998859</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B17">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="7"/>
+        <v>22369621</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="8"/>
+        <v>48755653414478.344</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>7.4999965589188991E-2</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>0.29999986235675596</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>0.99999954118918655</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B18">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="7"/>
+        <v>89478485</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="8"/>
+        <v>650075468338196.25</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>7.4999989676758E-2</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>0.299999958707032</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>0.99999986235677341</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B19">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="7"/>
+        <v>357913941</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="8"/>
+        <v>8667673269089891</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>7.4999996903027527E-2</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>0.29999998761211011</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="0"/>
+        <v>0.99999995870703373</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B20">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="7"/>
+        <v>1431655765</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="8"/>
+        <v>1.155689783528543E+17</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>7.4999999070908277E-2</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>0.29999999628363311</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="0"/>
+        <v>0.9999999876121104</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B21">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="7"/>
+        <v>5726623061</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="8"/>
+        <v>1.5409197170980137E+18</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>7.4999999721272484E-2</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>0.29999999888508994</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="0"/>
+        <v>0.99999999628363312</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B22">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="7"/>
+        <v>22906492245</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="8"/>
+        <v>2.0545596250880008E+19</v>
+      </c>
+      <c r="G22">
+        <f t="shared" ref="G22:I26" si="9">C$4*($E21/$E22)</f>
+        <v>7.4999999916381746E-2</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="9"/>
+        <v>0.29999999966552698</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="9"/>
+        <v>0.99999999888508995</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B23">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="C23">
+        <f t="shared" ref="C23:C26" si="10">POWER(C$4,B23)</f>
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ref="D23:D26" si="11">C23+D22*D$4</f>
+        <v>91625968981</v>
+      </c>
+      <c r="E23">
+        <f t="shared" ref="E23:E26" si="12">D23+E22*E$4</f>
+        <v>2.7394128343669277E+20</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="9"/>
+        <v>7.4999999974914522E-2</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="9"/>
+        <v>0.29999999989965809</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="9"/>
+        <v>0.999999999665527</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B24">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="11"/>
+        <v>366503875925</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="12"/>
+        <v>3.6525504461890744E+21</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="9"/>
+        <v>7.499999999247435E-2</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="9"/>
+        <v>0.2999999999698974</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="9"/>
+        <v>0.99999999989965804</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B25">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="11"/>
+        <v>1466015503701</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="12"/>
+        <v>4.8700672617320347E+22</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="9"/>
+        <v>7.4999999997742303E-2</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="9"/>
+        <v>0.29999999999096921</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="9"/>
+        <v>0.99999999996989741</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B26">
+        <f t="shared" si="5"/>
+        <v>21</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="11"/>
+        <v>5864062014805</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="12"/>
+        <v>6.4934230157013542E+23</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="9"/>
+        <v>7.4999999999322678E-2</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="9"/>
+        <v>0.29999999999729071</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="9"/>
+        <v>0.99999999999096911</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Calcolo Utilizzazione.xlsx
+++ b/Documents/Calcolo Utilizzazione.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documenti\OneDrive\Universita\LM-Computer Engineering\PECSN\PECSN-Project\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5163EB8-663E-4D21-AB85-01A993F15C9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C5D33C-6DA5-4E83-A189-8C2FFC5351D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{6CA2E0AA-0133-4EF1-B5E8-AD8D784F3B19}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>SC</t>
   </si>
@@ -44,12 +44,6 @@
     <t>JOBS/RO</t>
   </si>
   <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
     <t>e1</t>
   </si>
   <si>
@@ -59,9 +53,6 @@
     <t>e3</t>
   </si>
   <si>
-    <t>U</t>
-  </si>
-  <si>
     <t>CPU</t>
   </si>
   <si>
@@ -78,13 +69,43 @@
   </si>
   <si>
     <t>uQS</t>
+  </si>
+  <si>
+    <t>p1</t>
+  </si>
+  <si>
+    <t>p2</t>
+  </si>
+  <si>
+    <t>p3</t>
+  </si>
+  <si>
+    <t>Calcolo G(M,K)</t>
+  </si>
+  <si>
+    <t>Utilization for K jobs</t>
+  </si>
+  <si>
+    <t>Input Data</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Costante</t>
+  </si>
+  <si>
+    <t>Output Utilization</t>
+  </si>
+  <si>
+    <t>K JOBS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,16 +113,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -109,15 +156,75 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -140,21 +247,39 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CC4E2317-C62D-4FC3-8729-E98047D0F19A}" name="Tabella1" displayName="Tabella1" ref="B3:E26" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="B3:E26" xr:uid="{CC4E2317-C62D-4FC3-8729-E98047D0F19A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CC4E2317-C62D-4FC3-8729-E98047D0F19A}" name="Tabella1" displayName="Tabella1" ref="B4:E46" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="B4:E46" xr:uid="{CC4E2317-C62D-4FC3-8729-E98047D0F19A}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{2A779C70-B05D-4564-9E37-2EFFA2AC09A3}" name="SC"/>
     <tableColumn id="2" xr3:uid="{E6C8D15D-91E3-4376-B1AA-B7E8B9822473}" name="CPU">
-      <calculatedColumnFormula>POWER(C$4,B4)</calculatedColumnFormula>
+      <calculatedColumnFormula>POWER(C$5,B5)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{5621613A-E94D-41DA-9898-1D7B22D96156}" name="HD">
-      <calculatedColumnFormula>C4+D3*D$4</calculatedColumnFormula>
+      <calculatedColumnFormula>C5+D4*D$5</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{8B0EC96D-5506-4727-86BA-BE8E2C4366B2}" name="QS">
-      <calculatedColumnFormula>D4+E3*E$4</calculatedColumnFormula>
+      <calculatedColumnFormula>D5+E4*E$5</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{7DD4C601-A39A-4817-9092-3A0EA25B5CFB}" name="Tabella6" displayName="Tabella6" ref="G4:I46" totalsRowShown="0">
+  <autoFilter ref="G4:I46" xr:uid="{7DD4C601-A39A-4817-9092-3A0EA25B5CFB}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{136A7A01-770C-4D8D-892D-E42A113C22AF}" name="CPU">
+      <calculatedColumnFormula>C$5*($E4/$E5)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{50DE08C5-3FFC-4264-9559-029365B2CCCB}" name="HD">
+      <calculatedColumnFormula>D$5*($E4/$E5)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{6E92F904-FCD6-48D4-9814-B284BCE01C34}" name="QS">
+      <calculatedColumnFormula>E$5*($E4/$E5)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -455,359 +580,407 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFB80710-4C35-42AE-97AD-C2D68AF7A1B1}">
-  <dimension ref="A1:L26"/>
+  <dimension ref="B3:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4:L4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="7" max="9" width="11.73046875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="K3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="O3" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <f>K7/K5</f>
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <f>L7/L5</f>
+        <v>1.6</v>
+      </c>
+      <c r="E5">
+        <f>M7/M5</f>
+        <v>2.5</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1000</v>
+      </c>
+      <c r="L5" s="1">
+        <v>250</v>
+      </c>
+      <c r="M5" s="1">
+        <v>100</v>
+      </c>
+      <c r="O5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <f>POWER(C$5,B6)</f>
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ref="D6:E6" si="0">POWER(D$5,C6)</f>
+        <v>1.6</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>4.3321552697196655</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="L6" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A2">
-        <v>6</v>
-      </c>
-      <c r="B2">
+      <c r="M6" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <f>POWER(C$5,B7)</f>
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <f>C7+D6*D$5</f>
+        <v>3.5600000000000005</v>
+      </c>
+      <c r="E7">
+        <f>D7+E6*E$5</f>
+        <v>14.390388174299163</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7">
+        <f>$C5*($E6/$E7)</f>
+        <v>0.30104505988634661</v>
+      </c>
+      <c r="H7">
+        <f>D$5*($E6/$E7)</f>
+        <v>0.48167209581815462</v>
+      </c>
+      <c r="I7">
+        <f>E$5*($E6/$E7)</f>
+        <v>0.7526126497158665</v>
+      </c>
+      <c r="K7" s="1">
+        <f>K5</f>
+        <v>1000</v>
+      </c>
+      <c r="L7" s="1">
+        <f>L9*$K$7</f>
+        <v>400</v>
+      </c>
+      <c r="M7" s="1">
+        <f>M9*$K$7</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B8">
+        <f>B7+1</f>
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ref="C8:C12" si="1">POWER(C$5,B8)</f>
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ref="D8:D12" si="2">C8+D7*D$5</f>
+        <v>6.6960000000000015</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ref="E8:E11" si="3">D8+E7*E$5</f>
+        <v>42.671970435747909</v>
+      </c>
+      <c r="G8">
+        <f>$C6*($E7/$E8)</f>
+        <v>0.33723280240754472</v>
+      </c>
+      <c r="H8">
+        <f>D$5*($E7/$E8)</f>
+        <v>0.53957248385207157</v>
+      </c>
+      <c r="I8">
+        <f>E$5*($E7/$E8)</f>
+        <v>0.84308200601886174</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B9">
+        <f t="shared" ref="B9:B11" si="4">B8+1</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <f>J4/G4</f>
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <f>K4/H4</f>
-        <v>4</v>
-      </c>
-      <c r="E4">
-        <f>L4/I4</f>
-        <v>13.333333333333334</v>
-      </c>
-      <c r="G4">
-        <v>1000</v>
-      </c>
-      <c r="H4">
-        <v>250</v>
-      </c>
-      <c r="I4">
-        <v>75</v>
-      </c>
-      <c r="J4">
-        <f>G4</f>
-        <v>1000</v>
-      </c>
-      <c r="K4">
-        <v>1000</v>
-      </c>
-      <c r="L4">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <f>POWER(C$4,B5)</f>
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <f>POWER(C$4,B6)</f>
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <f>C6+D5*D$4</f>
-        <v>5</v>
-      </c>
-      <c r="E6">
-        <f>D6+E5*E$4</f>
-        <v>18.333333333333336</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6">
-        <f t="shared" ref="G6:I21" si="0">C$4*($E5/$E6)</f>
-        <v>5.4545454545454536E-2</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="0"/>
-        <v>0.21818181818181814</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="0"/>
-        <v>0.72727272727272718</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B7">
-        <f>B6+1</f>
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <f t="shared" ref="C7:C11" si="1">POWER(C$4,B7)</f>
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <f t="shared" ref="D7:D11" si="2">C7+D6*D$4</f>
-        <v>21</v>
-      </c>
-      <c r="E7">
-        <f t="shared" ref="E7:E10" si="3">D7+E6*E$4</f>
-        <v>265.44444444444446</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="0"/>
-        <v>6.9066555043951455E-2</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="0"/>
-        <v>0.27626622017580582</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="0"/>
-        <v>0.92088740058601948</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B8">
-        <f t="shared" ref="B8:B11" si="4">B7+1</f>
-        <v>3</v>
-      </c>
-      <c r="C8">
+      <c r="C9">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <f t="shared" si="2"/>
-        <v>85</v>
-      </c>
-      <c r="E8">
+        <v>11.713600000000003</v>
+      </c>
+      <c r="E9">
         <f t="shared" si="3"/>
-        <v>3624.2592592592596</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="0"/>
-        <v>7.3241019876347652E-2</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="0"/>
-        <v>0.29296407950539061</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="0"/>
-        <v>0.97654693168463536</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B9">
+        <v>118.39352608936977</v>
+      </c>
+      <c r="G9">
+        <f>$C7*($E8/$E9)</f>
+        <v>0.36042486312585048</v>
+      </c>
+      <c r="H9">
+        <f>D$5*($E8/$E9)</f>
+        <v>0.57667978100136075</v>
+      </c>
+      <c r="I9">
+        <f>E$5*($E8/$E9)</f>
+        <v>0.90106215781462617</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="M9" s="1">
+        <f>1-K9-L9</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B10">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D9">
-        <f>C9+D8*D$4</f>
-        <v>341</v>
-      </c>
-      <c r="E9">
+      <c r="D10">
+        <f>C10+D9*D$5</f>
+        <v>19.741760000000006</v>
+      </c>
+      <c r="E10">
         <f t="shared" si="3"/>
-        <v>48664.456790123462</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="0"/>
-        <v>7.4474462437538386E-2</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="0"/>
-        <v>0.29789784975015354</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="0"/>
-        <v>0.99299283250051185</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B10">
+        <v>315.72557522342441</v>
+      </c>
+      <c r="G10">
+        <f>$C8*($E9/$E10)</f>
+        <v>0.37498870975399484</v>
+      </c>
+      <c r="H10">
+        <f>D$5*($E9/$E10)</f>
+        <v>0.59998193560639179</v>
+      </c>
+      <c r="I10">
+        <f>E$5*($E9/$E10)</f>
+        <v>0.93747177438498708</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B11">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="C10">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="2"/>
-        <v>1365</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="3"/>
-        <v>650224.42386831285</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="0"/>
-        <v>7.4842554360860583E-2</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="0"/>
-        <v>0.29937021744344233</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="0"/>
-        <v>0.99790072481147452</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B11">
-        <f>B10+1</f>
-        <v>6</v>
-      </c>
       <c r="C11">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D11">
         <f t="shared" si="2"/>
-        <v>5461</v>
+        <v>32.586816000000013</v>
       </c>
       <c r="E11">
-        <f>D11+E10*E$4</f>
-        <v>8675119.9849108383</v>
+        <f t="shared" si="3"/>
+        <v>821.90075405856101</v>
       </c>
       <c r="G11">
-        <f t="shared" si="0"/>
-        <v>7.4952787396518727E-2</v>
+        <f>$C9*($E10/$E11)</f>
+        <v>0.38414075381287305</v>
       </c>
       <c r="H11">
-        <f t="shared" si="0"/>
-        <v>0.29981114958607491</v>
+        <f>D$5*($E10/$E11)</f>
+        <v>0.6146252061005969</v>
       </c>
       <c r="I11">
-        <f t="shared" si="0"/>
-        <v>0.99937049862024974</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+        <f>E$5*($E10/$E11)</f>
+        <v>0.96035188453218256</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="10"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B12">
-        <f t="shared" ref="B12:B26" si="5">B11+1</f>
+        <f>B11+1</f>
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="2"/>
+        <v>53.138905600000022</v>
+      </c>
+      <c r="E12">
+        <f>D12+E11*E$5</f>
+        <v>2107.8907907464022</v>
+      </c>
+      <c r="G12">
+        <f>$C10*($E11/$E12)</f>
+        <v>0.38991619379271858</v>
+      </c>
+      <c r="H12">
+        <f>D$5*($E11/$E12)</f>
+        <v>0.62386591006834979</v>
+      </c>
+      <c r="I12">
+        <f>E$5*($E11/$E12)</f>
+        <v>0.9747904844817965</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="M12" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C12">
-        <f t="shared" ref="C12:C22" si="6">POWER(C$4,B12)</f>
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <f t="shared" ref="D12:D22" si="7">C12+D11*D$4</f>
-        <v>21845</v>
-      </c>
-      <c r="E12">
-        <f t="shared" ref="E12:E22" si="8">D12+E11*E$4</f>
-        <v>115690111.46547785</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="0"/>
-        <v>7.4985838245125294E-2</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="0"/>
-        <v>0.29994335298050118</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="0"/>
-        <v>0.99981117660167063</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="N12" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B13">
+        <f t="shared" ref="B13:B46" si="5">B12+1</f>
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C13:C23" si="6">POWER(C$5,B13)</f>
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ref="D13:D23" si="7">C13+D12*D$5</f>
+        <v>86.022248960000042</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ref="E13:E23" si="8">D13+E12*E$5</f>
+        <v>5355.7492258260054</v>
+      </c>
+      <c r="G13">
+        <f>$C11*($E12/$E13)</f>
+        <v>0.39357533406940032</v>
+      </c>
+      <c r="H13">
+        <f>D$5*($E12/$E13)</f>
+        <v>0.6297205345110406</v>
+      </c>
+      <c r="I13">
+        <f>E$5*($E12/$E13)</f>
+        <v>0.98393833517350082</v>
+      </c>
+      <c r="K13" s="8">
+        <f>G46</f>
+        <v>0.3999999974428835</v>
+      </c>
+      <c r="L13" s="8">
+        <f>H46</f>
+        <v>0.63999999590861367</v>
+      </c>
+      <c r="M13" s="8">
+        <f>I46</f>
+        <v>0.99999999360720881</v>
+      </c>
+      <c r="N13">
+        <f>B46</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B14">
         <f t="shared" si="5"/>
         <v>8</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="7"/>
-        <v>87381</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="8"/>
-        <v>1542622200.5397048</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="0"/>
-        <v>7.4995751665574553E-2</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="0"/>
-        <v>0.29998300666229821</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="0"/>
-        <v>0.99994335554099412</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B14">
-        <f t="shared" si="5"/>
-        <v>9</v>
       </c>
       <c r="C14">
         <f t="shared" si="6"/>
@@ -815,29 +988,29 @@
       </c>
       <c r="D14">
         <f t="shared" si="7"/>
-        <v>349525</v>
+        <v>138.63559833600007</v>
       </c>
       <c r="E14">
         <f t="shared" si="8"/>
-        <v>20568645532.196064</v>
+        <v>13528.008662901015</v>
       </c>
       <c r="G14">
-        <f t="shared" si="0"/>
-        <v>7.4998725517683745E-2</v>
+        <f>$C12*($E13/$E14)</f>
+        <v>0.39590078327740302</v>
       </c>
       <c r="H14">
-        <f t="shared" si="0"/>
-        <v>0.29999490207073498</v>
+        <f>D$5*($E13/$E14)</f>
+        <v>0.63344125324384493</v>
       </c>
       <c r="I14">
-        <f t="shared" si="0"/>
-        <v>0.99998300690245001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+        <f>E$5*($E13/$E14)</f>
+        <v>0.98975195819350759</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B15">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C15">
         <f t="shared" si="6"/>
@@ -845,29 +1018,29 @@
       </c>
       <c r="D15">
         <f t="shared" si="7"/>
-        <v>1398101</v>
+        <v>222.81695733760012</v>
       </c>
       <c r="E15">
         <f t="shared" si="8"/>
-        <v>274250005196.94754</v>
+        <v>34042.838614590139</v>
       </c>
       <c r="G15">
-        <f t="shared" si="0"/>
-        <v>7.4999617656980808E-2</v>
+        <f>$C13*($E14/$E15)</f>
+        <v>0.39738192270203804</v>
       </c>
       <c r="H15">
-        <f t="shared" si="0"/>
-        <v>0.29999847062792323</v>
+        <f>D$5*($E14/$E15)</f>
+        <v>0.63581107632326095</v>
       </c>
       <c r="I15">
-        <f t="shared" si="0"/>
-        <v>0.99999490209307751</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+        <f>E$5*($E14/$E15)</f>
+        <v>0.99345480675509512</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B16">
         <f t="shared" si="5"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16">
         <f t="shared" si="6"/>
@@ -875,29 +1048,29 @@
       </c>
       <c r="D16">
         <f t="shared" si="7"/>
-        <v>5592405</v>
+        <v>357.50713174016022</v>
       </c>
       <c r="E16">
         <f t="shared" si="8"/>
-        <v>3656672328364.3008</v>
+        <v>85464.60366821551</v>
       </c>
       <c r="G16">
-        <f t="shared" si="0"/>
-        <v>7.4999885297249144E-2</v>
+        <f>$C14*($E15/$E16)</f>
+        <v>0.39832675930668071</v>
       </c>
       <c r="H16">
-        <f t="shared" si="0"/>
-        <v>0.29999954118899658</v>
+        <f>D$5*($E15/$E16)</f>
+        <v>0.6373228148906892</v>
       </c>
       <c r="I16">
-        <f t="shared" si="0"/>
-        <v>0.99999847062998859</v>
+        <f>E$5*($E15/$E16)</f>
+        <v>0.99581689826670172</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B17">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C17">
         <f t="shared" si="6"/>
@@ -905,29 +1078,29 @@
       </c>
       <c r="D17">
         <f t="shared" si="7"/>
-        <v>22369621</v>
+        <v>573.01141078425633</v>
       </c>
       <c r="E17">
         <f t="shared" si="8"/>
-        <v>48755653414478.344</v>
+        <v>214234.52058132304</v>
       </c>
       <c r="G17">
-        <f t="shared" si="0"/>
-        <v>7.4999965589188991E-2</v>
+        <f>$C15*($E16/$E17)</f>
+        <v>0.39893012310204834</v>
       </c>
       <c r="H17">
-        <f t="shared" si="0"/>
-        <v>0.29999986235675596</v>
+        <f>D$5*($E16/$E17)</f>
+        <v>0.63828819696327743</v>
       </c>
       <c r="I17">
-        <f t="shared" si="0"/>
-        <v>0.99999954118918655</v>
+        <f>E$5*($E16/$E17)</f>
+        <v>0.99732530775512085</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B18">
         <f t="shared" si="5"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18">
         <f t="shared" si="6"/>
@@ -935,29 +1108,29 @@
       </c>
       <c r="D18">
         <f t="shared" si="7"/>
-        <v>89478485</v>
+        <v>917.81825725481019</v>
       </c>
       <c r="E18">
         <f t="shared" si="8"/>
-        <v>650075468338196.25</v>
+        <v>536504.1197105624</v>
       </c>
       <c r="G18">
-        <f t="shared" si="0"/>
-        <v>7.4999989676758E-2</v>
+        <f>$C16*($E17/$E18)</f>
+        <v>0.39931570459682586</v>
       </c>
       <c r="H18">
-        <f t="shared" si="0"/>
-        <v>0.299999958707032</v>
+        <f>D$5*($E17/$E18)</f>
+        <v>0.63890512735492144</v>
       </c>
       <c r="I18">
-        <f t="shared" si="0"/>
-        <v>0.99999986235677341</v>
+        <f>E$5*($E17/$E18)</f>
+        <v>0.99828926149206465</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B19">
         <f t="shared" si="5"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C19">
         <f t="shared" si="6"/>
@@ -965,29 +1138,29 @@
       </c>
       <c r="D19">
         <f t="shared" si="7"/>
-        <v>357913941</v>
+        <v>1469.5092116076964</v>
       </c>
       <c r="E19">
         <f t="shared" si="8"/>
-        <v>8667673269089891</v>
+        <v>1342729.8084880137</v>
       </c>
       <c r="G19">
-        <f t="shared" si="0"/>
-        <v>7.4999996903027527E-2</v>
+        <f>$C17*($E18/$E19)</f>
+        <v>0.39956223234121468</v>
       </c>
       <c r="H19">
-        <f t="shared" si="0"/>
-        <v>0.29999998761211011</v>
+        <f>D$5*($E18/$E19)</f>
+        <v>0.63929957174594354</v>
       </c>
       <c r="I19">
-        <f t="shared" si="0"/>
-        <v>0.99999995870703373</v>
+        <f>E$5*($E18/$E19)</f>
+        <v>0.99890558085303671</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B20">
         <f t="shared" si="5"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C20">
         <f t="shared" si="6"/>
@@ -995,29 +1168,29 @@
       </c>
       <c r="D20">
         <f t="shared" si="7"/>
-        <v>1431655765</v>
+        <v>2352.2147385723142</v>
       </c>
       <c r="E20">
         <f t="shared" si="8"/>
-        <v>1.155689783528543E+17</v>
+        <v>3359176.7359586065</v>
       </c>
       <c r="G20">
-        <f t="shared" si="0"/>
-        <v>7.4999999070908277E-2</v>
+        <f>$C18*($E19/$E20)</f>
+        <v>0.39971990580746852</v>
       </c>
       <c r="H20">
-        <f t="shared" si="0"/>
-        <v>0.29999999628363311</v>
+        <f>D$5*($E19/$E20)</f>
+        <v>0.63955184929194964</v>
       </c>
       <c r="I20">
-        <f t="shared" si="0"/>
-        <v>0.9999999876121104</v>
+        <f>E$5*($E19/$E20)</f>
+        <v>0.99929976451867131</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B21">
         <f t="shared" si="5"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21">
         <f t="shared" si="6"/>
@@ -1025,29 +1198,29 @@
       </c>
       <c r="D21">
         <f t="shared" si="7"/>
-        <v>5726623061</v>
+        <v>3764.5435817157031</v>
       </c>
       <c r="E21">
         <f t="shared" si="8"/>
-        <v>1.5409197170980137E+18</v>
+        <v>8401706.3834782317</v>
       </c>
       <c r="G21">
-        <f t="shared" si="0"/>
-        <v>7.4999999721272484E-2</v>
+        <f>$C19*($E20/$E21)</f>
+        <v>0.39982077242836678</v>
       </c>
       <c r="H21">
-        <f t="shared" si="0"/>
-        <v>0.29999999888508994</v>
+        <f>D$5*($E20/$E21)</f>
+        <v>0.63971323588538687</v>
       </c>
       <c r="I21">
-        <f t="shared" si="0"/>
-        <v>0.99999999628363312</v>
+        <f>E$5*($E20/$E21)</f>
+        <v>0.99955193107091689</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B22">
         <f t="shared" si="5"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C22">
         <f t="shared" si="6"/>
@@ -1055,149 +1228,756 @@
       </c>
       <c r="D22">
         <f t="shared" si="7"/>
-        <v>22906492245</v>
+        <v>6024.2697307451253</v>
       </c>
       <c r="E22">
         <f t="shared" si="8"/>
-        <v>2.0545596250880008E+19</v>
+        <v>21010290.228426326</v>
       </c>
       <c r="G22">
-        <f t="shared" ref="G22:I26" si="9">C$4*($E21/$E22)</f>
-        <v>7.4999999916381746E-2</v>
+        <f>$C20*($E21/$E22)</f>
+        <v>0.39988530820535556</v>
       </c>
       <c r="H22">
-        <f t="shared" si="9"/>
-        <v>0.29999999966552698</v>
+        <f>D$5*($E21/$E22)</f>
+        <v>0.63981649312856892</v>
       </c>
       <c r="I22">
-        <f t="shared" si="9"/>
-        <v>0.99999999888508995</v>
+        <f>E$5*($E21/$E22)</f>
+        <v>0.99971327051338887</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B23">
         <f t="shared" si="5"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C23">
-        <f t="shared" ref="C23:C26" si="10">POWER(C$4,B23)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D23">
-        <f t="shared" ref="D23:D26" si="11">C23+D22*D$4</f>
-        <v>91625968981</v>
+        <f t="shared" si="7"/>
+        <v>9639.8315691922016</v>
       </c>
       <c r="E23">
-        <f t="shared" ref="E23:E26" si="12">D23+E22*E$4</f>
-        <v>2.7394128343669277E+20</v>
+        <f t="shared" si="8"/>
+        <v>52535365.402635008</v>
       </c>
       <c r="G23">
-        <f t="shared" si="9"/>
-        <v>7.4999999974914522E-2</v>
+        <f>$C21*($E22/$E23)</f>
+        <v>0.3999266031063432</v>
       </c>
       <c r="H23">
-        <f t="shared" si="9"/>
-        <v>0.29999999989965809</v>
+        <f>D$5*($E22/$E23)</f>
+        <v>0.63988256497014917</v>
       </c>
       <c r="I23">
-        <f t="shared" si="9"/>
-        <v>0.999999999665527</v>
+        <f>E$5*($E22/$E23)</f>
+        <v>0.99981650776585806</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B24">
         <f t="shared" si="5"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C24">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="C24:C27" si="9">POWER(C$5,B24)</f>
         <v>1</v>
       </c>
       <c r="D24">
-        <f t="shared" si="11"/>
-        <v>366503875925</v>
+        <f t="shared" ref="D24:D27" si="10">C24+D23*D$5</f>
+        <v>15424.730510707523</v>
       </c>
       <c r="E24">
-        <f t="shared" si="12"/>
-        <v>3.6525504461890744E+21</v>
+        <f t="shared" ref="E24:E27" si="11">D24+E23*E$5</f>
+        <v>131353838.23709823</v>
       </c>
       <c r="G24">
-        <f t="shared" si="9"/>
-        <v>7.499999999247435E-2</v>
+        <f>$C22*($E23/$E24)</f>
+        <v>0.39995302845895414</v>
       </c>
       <c r="H24">
-        <f t="shared" si="9"/>
-        <v>0.2999999999698974</v>
+        <f>D$5*($E23/$E24)</f>
+        <v>0.63992484553432671</v>
       </c>
       <c r="I24">
-        <f t="shared" si="9"/>
-        <v>0.99999999989965804</v>
+        <f>E$5*($E23/$E24)</f>
+        <v>0.99988257114738532</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B25">
         <f t="shared" si="5"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C25">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D25">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="D25">
+        <v>24680.568817132036</v>
+      </c>
+      <c r="E25">
         <f t="shared" si="11"/>
-        <v>1466015503701</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="12"/>
-        <v>4.8700672617320347E+22</v>
+        <v>328409276.16156274</v>
       </c>
       <c r="G25">
-        <f t="shared" si="9"/>
-        <v>7.4999999997742303E-2</v>
+        <f>$C23*($E24/$E25)</f>
+        <v>0.39996993925493746</v>
       </c>
       <c r="H25">
-        <f t="shared" si="9"/>
-        <v>0.29999999999096921</v>
+        <f>D$5*($E24/$E25)</f>
+        <v>0.63995190280789993</v>
       </c>
       <c r="I25">
-        <f t="shared" si="9"/>
-        <v>0.99999999996989741</v>
+        <f>E$5*($E24/$E25)</f>
+        <v>0.99992484813734361</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B26">
         <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="10"/>
+        <v>39489.910107411262</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="11"/>
+        <v>821062680.3140142</v>
+      </c>
+      <c r="G26">
+        <f>C$5*($E25/$E26)</f>
+        <v>0.39998076156130141</v>
+      </c>
+      <c r="H26">
+        <f>D$5*($E25/$E26)</f>
+        <v>0.6399692184980823</v>
+      </c>
+      <c r="I26">
+        <f>E$5*($E25/$E26)</f>
+        <v>0.9999519039032535</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B27">
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
-      <c r="C26">
+      <c r="C27">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D27">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="D26">
+        <v>63184.856171858024</v>
+      </c>
+      <c r="E27">
         <f t="shared" si="11"/>
-        <v>5864062014805</v>
-      </c>
-      <c r="E26">
+        <v>2052719885.6412075</v>
+      </c>
+      <c r="G27">
+        <f>C$5*($E26/$E27)</f>
+        <v>0.39998768758336412</v>
+      </c>
+      <c r="H27">
+        <f>D$5*($E26/$E27)</f>
+        <v>0.63998030013338258</v>
+      </c>
+      <c r="I27">
+        <f>E$5*($E26/$E27)</f>
+        <v>0.99996921895841029</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B28">
+        <f t="shared" si="5"/>
+        <v>22</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ref="C28:C30" si="12">POWER(C$5,B28)</f>
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <f t="shared" ref="D28:D30" si="13">C28+D27*D$5</f>
+        <v>101096.76987497284</v>
+      </c>
+      <c r="E28">
+        <f t="shared" ref="E28:E30" si="14">D28+E27*E$5</f>
+        <v>5131900810.8728933</v>
+      </c>
+      <c r="G28">
+        <f>C$5*($E27/$E28)</f>
+        <v>0.39999212013064162</v>
+      </c>
+      <c r="H28">
+        <f>D$5*($E27/$E28)</f>
+        <v>0.63998739220902667</v>
+      </c>
+      <c r="I28">
+        <f>E$5*($E27/$E28)</f>
+        <v>0.99998030032660401</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B29">
+        <f t="shared" si="5"/>
+        <v>23</v>
+      </c>
+      <c r="C29">
         <f t="shared" si="12"/>
-        <v>6.4934230157013542E+23</v>
-      </c>
-      <c r="G26">
-        <f t="shared" si="9"/>
-        <v>7.4999999999322678E-2</v>
-      </c>
-      <c r="H26">
-        <f t="shared" si="9"/>
-        <v>0.29999999999729071</v>
-      </c>
-      <c r="I26">
-        <f t="shared" si="9"/>
-        <v>0.99999999999096911</v>
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="13"/>
+        <v>161755.83179995656</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="14"/>
+        <v>12829913783.014034</v>
+      </c>
+      <c r="G29">
+        <f>C$5*($E28/$E29)</f>
+        <v>0.39999495691601561</v>
+      </c>
+      <c r="H29">
+        <f>D$5*($E28/$E29)</f>
+        <v>0.63999193106562502</v>
+      </c>
+      <c r="I29">
+        <f>E$5*($E28/$E29)</f>
+        <v>0.99998739229003908</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B30">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="13"/>
+        <v>258810.33087993052</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="14"/>
+        <v>32075043267.865967</v>
+      </c>
+      <c r="G30">
+        <f>C$5*($E29/$E30)</f>
+        <v>0.39999677243982218</v>
+      </c>
+      <c r="H30">
+        <f>D$5*($E29/$E30)</f>
+        <v>0.63999483590371553</v>
+      </c>
+      <c r="I30">
+        <f>E$5*($E29/$E30)</f>
+        <v>0.99999193109955542</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B31">
+        <f t="shared" si="5"/>
+        <v>25</v>
+      </c>
+      <c r="C31">
+        <f t="shared" ref="C31:C38" si="15">POWER(C$5,B31)</f>
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <f t="shared" ref="D31:D38" si="16">C31+D30*D$5</f>
+        <v>414097.52940788888</v>
+      </c>
+      <c r="E31">
+        <f t="shared" ref="E31:E38" si="17">D31+E30*E$5</f>
+        <v>80188022267.194321</v>
+      </c>
+      <c r="G31">
+        <f>C$5*($E30/$E31)</f>
+        <v>0.39999793436716508</v>
+      </c>
+      <c r="H31">
+        <f>D$5*($E30/$E31)</f>
+        <v>0.63999669498746414</v>
+      </c>
+      <c r="I31">
+        <f>E$5*($E30/$E31)</f>
+        <v>0.99999483591791272</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B32">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="16"/>
+        <v>662557.04705262231</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="17"/>
+        <v>200470718225.03287</v>
+      </c>
+      <c r="G32">
+        <f>C$5*($E31/$E32)</f>
+        <v>0.39999867799735955</v>
+      </c>
+      <c r="H32">
+        <f>D$5*($E31/$E32)</f>
+        <v>0.63999788479577535</v>
+      </c>
+      <c r="I32">
+        <f>E$5*($E31/$E32)</f>
+        <v>0.99999669499339894</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B33">
+        <f t="shared" si="5"/>
+        <v>27</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="16"/>
+        <v>1060092.2752841958</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="17"/>
+        <v>501177855654.85742</v>
+      </c>
+      <c r="G33">
+        <f>C$5*($E32/$E33)</f>
+        <v>0.39999915391930169</v>
+      </c>
+      <c r="H33">
+        <f>D$5*($E32/$E33)</f>
+        <v>0.63999864627088277</v>
+      </c>
+      <c r="I33">
+        <f>E$5*($E32/$E33)</f>
+        <v>0.99999788479825424</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B34">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="16"/>
+        <v>1696148.6404547133</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="17"/>
+        <v>1252946335285.7839</v>
+      </c>
+      <c r="G34">
+        <f>C$5*($E33/$E34)</f>
+        <v>0.39999945850876684</v>
+      </c>
+      <c r="H34">
+        <f>D$5*($E33/$E34)</f>
+        <v>0.63999913361402694</v>
+      </c>
+      <c r="I34">
+        <f>E$5*($E33/$E34)</f>
+        <v>0.99999864627191704</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B35">
+        <f t="shared" si="5"/>
+        <v>29</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="16"/>
+        <v>2713838.8247275413</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="17"/>
+        <v>3132368552053.2847</v>
+      </c>
+      <c r="G35">
+        <f>C$5*($E34/$E35)</f>
+        <v>0.39999965344578331</v>
+      </c>
+      <c r="H35">
+        <f>D$5*($E34/$E35)</f>
+        <v>0.63999944551325338</v>
+      </c>
+      <c r="I35">
+        <f>E$5*($E34/$E35)</f>
+        <v>0.99999913361445825</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B36">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="16"/>
+        <v>4342143.1195640666</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="17"/>
+        <v>7830925722276.3311</v>
+      </c>
+      <c r="G36">
+        <f>C$5*($E35/$E36)</f>
+        <v>0.39999977820537325</v>
+      </c>
+      <c r="H36">
+        <f>D$5*($E35/$E36)</f>
+        <v>0.63999964512859719</v>
+      </c>
+      <c r="I36">
+        <f>E$5*($E35/$E36)</f>
+        <v>0.99999944551343312</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B37">
+        <f t="shared" si="5"/>
+        <v>31</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="16"/>
+        <v>6947429.991302507</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="17"/>
+        <v>19577321253120.82</v>
+      </c>
+      <c r="G37">
+        <f>C$5*($E36/$E37)</f>
+        <v>0.39999985805146876</v>
+      </c>
+      <c r="H37">
+        <f>D$5*($E36/$E37)</f>
+        <v>0.6399997728823501</v>
+      </c>
+      <c r="I37">
+        <f>E$5*($E36/$E37)</f>
+        <v>0.9999996451286719</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B38">
+        <f t="shared" si="5"/>
+        <v>32</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="16"/>
+        <v>11115888.986084012</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="17"/>
+        <v>48943314248691.031</v>
+      </c>
+      <c r="G38">
+        <f>C$5*($E37/$E38)</f>
+        <v>0.39999990915295253</v>
+      </c>
+      <c r="H38">
+        <f>D$5*($E37/$E38)</f>
+        <v>0.63999985464472409</v>
+      </c>
+      <c r="I38">
+        <f>E$5*($E37/$E38)</f>
+        <v>0.99999977288238129</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B39">
+        <f t="shared" si="5"/>
+        <v>33</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ref="C39:C46" si="18">POWER(C$5,B39)</f>
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ref="D39:D46" si="19">C39+D38*D$5</f>
+        <v>17785423.377734419</v>
+      </c>
+      <c r="E39">
+        <f t="shared" ref="E39:E46" si="20">D39+E38*E$5</f>
+        <v>122358303407150.95</v>
+      </c>
+      <c r="G39">
+        <f>C$5*($E38/$E39)</f>
+        <v>0.39999994185789478</v>
+      </c>
+      <c r="H39">
+        <f>D$5*($E38/$E39)</f>
+        <v>0.63999990697263165</v>
+      </c>
+      <c r="I39">
+        <f>E$5*($E38/$E39)</f>
+        <v>0.99999985464473695</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B40">
+        <f t="shared" si="5"/>
+        <v>34</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="19"/>
+        <v>28456678.404375073</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="20"/>
+        <v>305895786974555.75</v>
+      </c>
+      <c r="G40">
+        <f>C$5*($E39/$E40)</f>
+        <v>0.39999996278905486</v>
+      </c>
+      <c r="H40">
+        <f>D$5*($E39/$E40)</f>
+        <v>0.63999994046248787</v>
+      </c>
+      <c r="I40">
+        <f>E$5*($E39/$E40)</f>
+        <v>0.99999990697263719</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B41">
+        <f t="shared" si="5"/>
+        <v>35</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="19"/>
+        <v>45530686.447000116</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="20"/>
+        <v>764739512967075.88</v>
+      </c>
+      <c r="G41">
+        <f>C$5*($E40/$E41)</f>
+        <v>0.39999997618499594</v>
+      </c>
+      <c r="H41">
+        <f>D$5*($E40/$E41)</f>
+        <v>0.63999996189599351</v>
+      </c>
+      <c r="I41">
+        <f>E$5*($E40/$E41)</f>
+        <v>0.99999994046248986</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B42">
+        <f t="shared" si="5"/>
+        <v>36</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="19"/>
+        <v>72849099.315200195</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="20"/>
+        <v>1911848855266789</v>
+      </c>
+      <c r="G42">
+        <f>C$5*($E41/$E42)</f>
+        <v>0.39999998475839782</v>
+      </c>
+      <c r="H42">
+        <f>D$5*($E41/$E42)</f>
+        <v>0.63999997561343658</v>
+      </c>
+      <c r="I42">
+        <f>E$5*($E41/$E42)</f>
+        <v>0.99999996189599449</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B43">
+        <f t="shared" si="5"/>
+        <v>37</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="19"/>
+        <v>116558559.90432031</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="20"/>
+        <v>4779622254725532</v>
+      </c>
+      <c r="G43">
+        <f>C$5*($E42/$E43)</f>
+        <v>0.3999999902453748</v>
+      </c>
+      <c r="H43">
+        <f>D$5*($E42/$E43)</f>
+        <v>0.63999998439259975</v>
+      </c>
+      <c r="I43">
+        <f>E$5*($E42/$E43)</f>
+        <v>0.99999997561343701</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B44">
+        <f t="shared" si="5"/>
+        <v>38</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="19"/>
+        <v>186493696.8469125</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="20"/>
+        <v>1.1949055823307526E+16</v>
+      </c>
+      <c r="G44">
+        <f>C$5*($E43/$E44)</f>
+        <v>0.39999999375703993</v>
+      </c>
+      <c r="H44">
+        <f>D$5*($E43/$E44)</f>
+        <v>0.63999999001126395</v>
+      </c>
+      <c r="I44">
+        <f>E$5*($E43/$E44)</f>
+        <v>0.99999998439259985</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B45">
+        <f t="shared" si="5"/>
+        <v>39</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="19"/>
+        <v>298389915.95506001</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="20"/>
+        <v>2.9872639856658732E+16</v>
+      </c>
+      <c r="G45">
+        <f>C$5*($E44/$E45)</f>
+        <v>0.39999999600450553</v>
+      </c>
+      <c r="H45">
+        <f>D$5*($E44/$E45)</f>
+        <v>0.63999999360720894</v>
+      </c>
+      <c r="I45">
+        <f>E$5*($E44/$E45)</f>
+        <v>0.99999999001126383</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B46">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="19"/>
+        <v>477423866.52809602</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="20"/>
+        <v>7.4681600119070704E+16</v>
+      </c>
+      <c r="G46">
+        <f>C$5*($E45/$E46)</f>
+        <v>0.3999999974428835</v>
+      </c>
+      <c r="H46">
+        <f>D$5*($E45/$E46)</f>
+        <v>0.63999999590861367</v>
+      </c>
+      <c r="I46">
+        <f>E$5*($E45/$E46)</f>
+        <v>0.99999999360720881</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="K11:N11"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Documents/Calcolo Utilizzazione.xlsx
+++ b/Documents/Calcolo Utilizzazione.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documenti\OneDrive\Universita\LM-Computer Engineering\PECSN\PECSN-Project\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5432c06226f2998e/Universita/LM-Computer Engineering/PECSN/PECSN-Project/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C5D33C-6DA5-4E83-A189-8C2FFC5351D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{E0C5D33C-6DA5-4E83-A189-8C2FFC5351D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B98526B2-EE38-4168-817B-223C435E7AC4}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{6CA2E0AA-0133-4EF1-B5E8-AD8D784F3B19}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t>SC</t>
   </si>
@@ -99,6 +99,12 @@
   </si>
   <si>
     <t>K JOBS</t>
+  </si>
+  <si>
+    <t>Output Throughput</t>
+  </si>
+  <si>
+    <t>Server</t>
   </si>
 </sst>
 </file>
@@ -197,13 +203,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -221,10 +224,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -583,32 +596,33 @@
   <dimension ref="B3:O46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="U36" sqref="U36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="7" max="9" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.9296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="G3" s="2" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="G3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="K3" s="2" t="s">
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="K3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="O3" s="4" t="s">
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="O3" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -634,16 +648,16 @@
       <c r="I4" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="O4" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -692,13 +706,13 @@
         <f t="shared" si="0"/>
         <v>4.3321552697196655</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="M6" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -720,15 +734,15 @@
       </c>
       <c r="F7" s="1"/>
       <c r="G7">
-        <f>$C5*($E6/$E7)</f>
+        <f t="shared" ref="G7:G25" si="1">$C5*($E6/$E7)</f>
         <v>0.30104505988634661</v>
       </c>
       <c r="H7">
-        <f>D$5*($E6/$E7)</f>
+        <f t="shared" ref="H7:H46" si="2">D$5*($E6/$E7)</f>
         <v>0.48167209581815462</v>
       </c>
       <c r="I7">
-        <f>E$5*($E6/$E7)</f>
+        <f t="shared" ref="I7:I46" si="3">E$5*($E6/$E7)</f>
         <v>0.7526126497158665</v>
       </c>
       <c r="K7" s="1">
@@ -750,66 +764,66 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <f t="shared" ref="C8:C12" si="1">POWER(C$5,B8)</f>
+        <f t="shared" ref="C8:C12" si="4">POWER(C$5,B8)</f>
         <v>1</v>
       </c>
       <c r="D8">
-        <f t="shared" ref="D8:D12" si="2">C8+D7*D$5</f>
+        <f t="shared" ref="D8:D12" si="5">C8+D7*D$5</f>
         <v>6.6960000000000015</v>
       </c>
       <c r="E8">
-        <f t="shared" ref="E8:E11" si="3">D8+E7*E$5</f>
+        <f t="shared" ref="E8:E11" si="6">D8+E7*E$5</f>
         <v>42.671970435747909</v>
       </c>
       <c r="G8">
-        <f>$C6*($E7/$E8)</f>
+        <f t="shared" si="1"/>
         <v>0.33723280240754472</v>
       </c>
       <c r="H8">
-        <f>D$5*($E7/$E8)</f>
+        <f t="shared" si="2"/>
         <v>0.53957248385207157</v>
       </c>
       <c r="I8">
-        <f>E$5*($E7/$E8)</f>
+        <f t="shared" si="3"/>
         <v>0.84308200601886174</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="L8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="M8" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B9">
-        <f t="shared" ref="B9:B11" si="4">B8+1</f>
+        <f t="shared" ref="B9:B11" si="7">B8+1</f>
         <v>3</v>
       </c>
       <c r="C9">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="5"/>
+        <v>11.713600000000003</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="6"/>
+        <v>118.39352608936977</v>
+      </c>
+      <c r="G9">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="2"/>
-        <v>11.713600000000003</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="3"/>
-        <v>118.39352608936977</v>
-      </c>
-      <c r="G9">
-        <f>$C7*($E8/$E9)</f>
         <v>0.36042486312585048</v>
       </c>
       <c r="H9">
-        <f>D$5*($E8/$E9)</f>
+        <f t="shared" si="2"/>
         <v>0.57667978100136075</v>
       </c>
       <c r="I9">
-        <f>E$5*($E8/$E9)</f>
+        <f t="shared" si="3"/>
         <v>0.90106215781462617</v>
       </c>
       <c r="K9" s="1">
@@ -825,11 +839,11 @@
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B10">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="C10">
         <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D10">
@@ -837,56 +851,56 @@
         <v>19.741760000000006</v>
       </c>
       <c r="E10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>315.72557522342441</v>
       </c>
       <c r="G10">
-        <f>$C8*($E9/$E10)</f>
+        <f t="shared" si="1"/>
         <v>0.37498870975399484</v>
       </c>
       <c r="H10">
-        <f>D$5*($E9/$E10)</f>
+        <f t="shared" si="2"/>
         <v>0.59998193560639179</v>
       </c>
       <c r="I10">
-        <f>E$5*($E9/$E10)</f>
+        <f t="shared" si="3"/>
         <v>0.93747177438498708</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B11">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="C11">
         <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="5"/>
+        <v>32.586816000000013</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="6"/>
+        <v>821.90075405856101</v>
+      </c>
+      <c r="G11">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="2"/>
-        <v>32.586816000000013</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="3"/>
-        <v>821.90075405856101</v>
-      </c>
-      <c r="G11">
-        <f>$C9*($E10/$E11)</f>
         <v>0.38414075381287305</v>
       </c>
       <c r="H11">
-        <f>D$5*($E10/$E11)</f>
+        <f t="shared" si="2"/>
         <v>0.6146252061005969</v>
       </c>
       <c r="I11">
-        <f>E$5*($E10/$E11)</f>
+        <f t="shared" si="3"/>
         <v>0.96035188453218256</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K11" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
       <c r="N11" s="10"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.45">
@@ -895,11 +909,11 @@
         <v>6</v>
       </c>
       <c r="C12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>53.138905600000022</v>
       </c>
       <c r="E12">
@@ -907,68 +921,68 @@
         <v>2107.8907907464022</v>
       </c>
       <c r="G12">
-        <f>$C10*($E11/$E12)</f>
+        <f t="shared" si="1"/>
         <v>0.38991619379271858</v>
       </c>
       <c r="H12">
-        <f>D$5*($E11/$E12)</f>
+        <f t="shared" si="2"/>
         <v>0.62386591006834979</v>
       </c>
       <c r="I12">
-        <f>E$5*($E11/$E12)</f>
+        <f t="shared" si="3"/>
         <v>0.9747904844817965</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L12" s="6" t="s">
+      <c r="L12" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="M12" s="7" t="s">
+      <c r="M12" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N12" s="9" t="s">
+      <c r="N12" s="8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B13">
-        <f t="shared" ref="B13:B46" si="5">B12+1</f>
+        <f t="shared" ref="B13:B46" si="8">B12+1</f>
         <v>7</v>
       </c>
       <c r="C13">
-        <f t="shared" ref="C13:C23" si="6">POWER(C$5,B13)</f>
+        <f t="shared" ref="C13:C23" si="9">POWER(C$5,B13)</f>
         <v>1</v>
       </c>
       <c r="D13">
-        <f t="shared" ref="D13:D23" si="7">C13+D12*D$5</f>
+        <f t="shared" ref="D13:D23" si="10">C13+D12*D$5</f>
         <v>86.022248960000042</v>
       </c>
       <c r="E13">
-        <f t="shared" ref="E13:E23" si="8">D13+E12*E$5</f>
+        <f t="shared" ref="E13:E23" si="11">D13+E12*E$5</f>
         <v>5355.7492258260054</v>
       </c>
       <c r="G13">
-        <f>$C11*($E12/$E13)</f>
+        <f t="shared" si="1"/>
         <v>0.39357533406940032</v>
       </c>
       <c r="H13">
-        <f>D$5*($E12/$E13)</f>
+        <f t="shared" si="2"/>
         <v>0.6297205345110406</v>
       </c>
       <c r="I13">
-        <f>E$5*($E12/$E13)</f>
+        <f t="shared" si="3"/>
         <v>0.98393833517350082</v>
       </c>
-      <c r="K13" s="8">
+      <c r="K13" s="7">
         <f>G46</f>
         <v>0.3999999974428835</v>
       </c>
-      <c r="L13" s="8">
+      <c r="L13" s="7">
         <f>H46</f>
         <v>0.63999999590861367</v>
       </c>
-      <c r="M13" s="8">
+      <c r="M13" s="7">
         <f>I46</f>
         <v>0.99999999360720881</v>
       </c>
@@ -979,1000 +993,1038 @@
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="C14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="D14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>138.63559833600007</v>
       </c>
       <c r="E14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>13528.008662901015</v>
       </c>
       <c r="G14">
-        <f>$C12*($E13/$E14)</f>
+        <f t="shared" si="1"/>
         <v>0.39590078327740302</v>
       </c>
       <c r="H14">
-        <f>D$5*($E13/$E14)</f>
+        <f t="shared" si="2"/>
         <v>0.63344125324384493</v>
       </c>
       <c r="I14">
-        <f>E$5*($E13/$E14)</f>
+        <f t="shared" si="3"/>
         <v>0.98975195819350759</v>
       </c>
+      <c r="K14" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="13"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="C15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="D15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>222.81695733760012</v>
       </c>
       <c r="E15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>34042.838614590139</v>
       </c>
       <c r="G15">
-        <f>$C13*($E14/$E15)</f>
+        <f t="shared" si="1"/>
         <v>0.39738192270203804</v>
       </c>
       <c r="H15">
-        <f>D$5*($E14/$E15)</f>
+        <f t="shared" si="2"/>
         <v>0.63581107632326095</v>
       </c>
       <c r="I15">
-        <f>E$5*($E14/$E15)</f>
+        <f t="shared" si="3"/>
         <v>0.99345480675509512</v>
       </c>
+      <c r="K15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="N15" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="O15" s="13"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="C16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="D16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>357.50713174016022</v>
       </c>
       <c r="E16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>85464.60366821551</v>
       </c>
       <c r="G16">
-        <f>$C14*($E15/$E16)</f>
+        <f t="shared" si="1"/>
         <v>0.39832675930668071</v>
       </c>
       <c r="H16">
-        <f>D$5*($E15/$E16)</f>
+        <f t="shared" si="2"/>
         <v>0.6373228148906892</v>
       </c>
       <c r="I16">
-        <f>E$5*($E15/$E16)</f>
+        <f t="shared" si="3"/>
         <v>0.99581689826670172</v>
       </c>
+      <c r="K16">
+        <f>K5*K13</f>
+        <v>399.99999744288351</v>
+      </c>
+      <c r="L16">
+        <f>L5*L13</f>
+        <v>159.99999897715341</v>
+      </c>
+      <c r="M16">
+        <f>M5*M13</f>
+        <v>99.999999360720878</v>
+      </c>
+      <c r="N16">
+        <f>K16*K9</f>
+        <v>139.99999910500921</v>
+      </c>
+      <c r="O16" s="13"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
       <c r="C17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="D17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>573.01141078425633</v>
       </c>
       <c r="E17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>214234.52058132304</v>
       </c>
       <c r="G17">
-        <f>$C15*($E16/$E17)</f>
+        <f t="shared" si="1"/>
         <v>0.39893012310204834</v>
       </c>
       <c r="H17">
-        <f>D$5*($E16/$E17)</f>
+        <f t="shared" si="2"/>
         <v>0.63828819696327743</v>
       </c>
       <c r="I17">
-        <f>E$5*($E16/$E17)</f>
+        <f t="shared" si="3"/>
         <v>0.99732530775512085</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="C18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="D18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>917.81825725481019</v>
       </c>
       <c r="E18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>536504.1197105624</v>
       </c>
       <c r="G18">
-        <f>$C16*($E17/$E18)</f>
+        <f t="shared" si="1"/>
         <v>0.39931570459682586</v>
       </c>
       <c r="H18">
-        <f>D$5*($E17/$E18)</f>
+        <f t="shared" si="2"/>
         <v>0.63890512735492144</v>
       </c>
       <c r="I18">
-        <f>E$5*($E17/$E18)</f>
+        <f t="shared" si="3"/>
         <v>0.99828926149206465</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>13</v>
       </c>
       <c r="C19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="D19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1469.5092116076964</v>
       </c>
       <c r="E19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1342729.8084880137</v>
       </c>
       <c r="G19">
-        <f>$C17*($E18/$E19)</f>
+        <f t="shared" si="1"/>
         <v>0.39956223234121468</v>
       </c>
       <c r="H19">
-        <f>D$5*($E18/$E19)</f>
+        <f t="shared" si="2"/>
         <v>0.63929957174594354</v>
       </c>
       <c r="I19">
-        <f>E$5*($E18/$E19)</f>
+        <f t="shared" si="3"/>
         <v>0.99890558085303671</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="C20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="D20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2352.2147385723142</v>
       </c>
       <c r="E20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3359176.7359586065</v>
       </c>
       <c r="G20">
-        <f>$C18*($E19/$E20)</f>
+        <f t="shared" si="1"/>
         <v>0.39971990580746852</v>
       </c>
       <c r="H20">
-        <f>D$5*($E19/$E20)</f>
+        <f t="shared" si="2"/>
         <v>0.63955184929194964</v>
       </c>
       <c r="I20">
-        <f>E$5*($E19/$E20)</f>
+        <f t="shared" si="3"/>
         <v>0.99929976451867131</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>15</v>
       </c>
       <c r="C21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="D21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3764.5435817157031</v>
       </c>
       <c r="E21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>8401706.3834782317</v>
       </c>
       <c r="G21">
-        <f>$C19*($E20/$E21)</f>
+        <f t="shared" si="1"/>
         <v>0.39982077242836678</v>
       </c>
       <c r="H21">
-        <f>D$5*($E20/$E21)</f>
+        <f t="shared" si="2"/>
         <v>0.63971323588538687</v>
       </c>
       <c r="I21">
-        <f>E$5*($E20/$E21)</f>
+        <f t="shared" si="3"/>
         <v>0.99955193107091689</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>16</v>
       </c>
       <c r="C22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="D22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>6024.2697307451253</v>
       </c>
       <c r="E22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>21010290.228426326</v>
       </c>
       <c r="G22">
-        <f>$C20*($E21/$E22)</f>
+        <f t="shared" si="1"/>
         <v>0.39988530820535556</v>
       </c>
       <c r="H22">
-        <f>D$5*($E21/$E22)</f>
+        <f t="shared" si="2"/>
         <v>0.63981649312856892</v>
       </c>
       <c r="I22">
-        <f>E$5*($E21/$E22)</f>
+        <f t="shared" si="3"/>
         <v>0.99971327051338887</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>17</v>
       </c>
       <c r="C23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="D23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>9639.8315691922016</v>
       </c>
       <c r="E23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>52535365.402635008</v>
       </c>
       <c r="G23">
-        <f>$C21*($E22/$E23)</f>
+        <f t="shared" si="1"/>
         <v>0.3999266031063432</v>
       </c>
       <c r="H23">
-        <f>D$5*($E22/$E23)</f>
+        <f t="shared" si="2"/>
         <v>0.63988256497014917</v>
       </c>
       <c r="I23">
-        <f>E$5*($E22/$E23)</f>
+        <f t="shared" si="3"/>
         <v>0.99981650776585806</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="C24">
-        <f t="shared" ref="C24:C27" si="9">POWER(C$5,B24)</f>
+        <f t="shared" ref="C24:C27" si="12">POWER(C$5,B24)</f>
         <v>1</v>
       </c>
       <c r="D24">
-        <f t="shared" ref="D24:D27" si="10">C24+D23*D$5</f>
+        <f t="shared" ref="D24:D27" si="13">C24+D23*D$5</f>
         <v>15424.730510707523</v>
       </c>
       <c r="E24">
-        <f t="shared" ref="E24:E27" si="11">D24+E23*E$5</f>
+        <f t="shared" ref="E24:E27" si="14">D24+E23*E$5</f>
         <v>131353838.23709823</v>
       </c>
       <c r="G24">
-        <f>$C22*($E23/$E24)</f>
+        <f t="shared" si="1"/>
         <v>0.39995302845895414</v>
       </c>
       <c r="H24">
-        <f>D$5*($E23/$E24)</f>
+        <f t="shared" si="2"/>
         <v>0.63992484553432671</v>
       </c>
       <c r="I24">
-        <f>E$5*($E23/$E24)</f>
+        <f t="shared" si="3"/>
         <v>0.99988257114738532</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>19</v>
       </c>
       <c r="C25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="D25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>24680.568817132036</v>
       </c>
       <c r="E25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>328409276.16156274</v>
       </c>
       <c r="G25">
-        <f>$C23*($E24/$E25)</f>
+        <f t="shared" si="1"/>
         <v>0.39996993925493746</v>
       </c>
       <c r="H25">
-        <f>D$5*($E24/$E25)</f>
+        <f t="shared" si="2"/>
         <v>0.63995190280789993</v>
       </c>
       <c r="I25">
-        <f>E$5*($E24/$E25)</f>
+        <f t="shared" si="3"/>
         <v>0.99992484813734361</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="C26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="D26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>39489.910107411262</v>
       </c>
       <c r="E26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>821062680.3140142</v>
       </c>
       <c r="G26">
-        <f>C$5*($E25/$E26)</f>
+        <f t="shared" ref="G26:G46" si="15">C$5*($E25/$E26)</f>
         <v>0.39998076156130141</v>
       </c>
       <c r="H26">
-        <f>D$5*($E25/$E26)</f>
+        <f t="shared" si="2"/>
         <v>0.6399692184980823</v>
       </c>
       <c r="I26">
-        <f>E$5*($E25/$E26)</f>
+        <f t="shared" si="3"/>
         <v>0.9999519039032535</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>21</v>
       </c>
       <c r="C27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="D27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>63184.856171858024</v>
       </c>
       <c r="E27">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2052719885.6412075</v>
       </c>
       <c r="G27">
-        <f>C$5*($E26/$E27)</f>
+        <f t="shared" si="15"/>
         <v>0.39998768758336412</v>
       </c>
       <c r="H27">
-        <f>D$5*($E26/$E27)</f>
+        <f t="shared" si="2"/>
         <v>0.63998030013338258</v>
       </c>
       <c r="I27">
-        <f>E$5*($E26/$E27)</f>
+        <f t="shared" si="3"/>
         <v>0.99996921895841029</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="C28">
-        <f t="shared" ref="C28:C30" si="12">POWER(C$5,B28)</f>
+        <f t="shared" ref="C28:C30" si="16">POWER(C$5,B28)</f>
         <v>1</v>
       </c>
       <c r="D28">
-        <f t="shared" ref="D28:D30" si="13">C28+D27*D$5</f>
+        <f t="shared" ref="D28:D30" si="17">C28+D27*D$5</f>
         <v>101096.76987497284</v>
       </c>
       <c r="E28">
-        <f t="shared" ref="E28:E30" si="14">D28+E27*E$5</f>
+        <f t="shared" ref="E28:E30" si="18">D28+E27*E$5</f>
         <v>5131900810.8728933</v>
       </c>
       <c r="G28">
-        <f>C$5*($E27/$E28)</f>
+        <f t="shared" si="15"/>
         <v>0.39999212013064162</v>
       </c>
       <c r="H28">
-        <f>D$5*($E27/$E28)</f>
+        <f t="shared" si="2"/>
         <v>0.63998739220902667</v>
       </c>
       <c r="I28">
-        <f>E$5*($E27/$E28)</f>
+        <f t="shared" si="3"/>
         <v>0.99998030032660401</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>23</v>
       </c>
       <c r="C29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="D29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>161755.83179995656</v>
       </c>
       <c r="E29">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>12829913783.014034</v>
       </c>
       <c r="G29">
-        <f>C$5*($E28/$E29)</f>
+        <f t="shared" si="15"/>
         <v>0.39999495691601561</v>
       </c>
       <c r="H29">
-        <f>D$5*($E28/$E29)</f>
+        <f t="shared" si="2"/>
         <v>0.63999193106562502</v>
       </c>
       <c r="I29">
-        <f>E$5*($E28/$E29)</f>
+        <f t="shared" si="3"/>
         <v>0.99998739229003908</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="C30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="D30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>258810.33087993052</v>
       </c>
       <c r="E30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>32075043267.865967</v>
       </c>
       <c r="G30">
-        <f>C$5*($E29/$E30)</f>
+        <f t="shared" si="15"/>
         <v>0.39999677243982218</v>
       </c>
       <c r="H30">
-        <f>D$5*($E29/$E30)</f>
+        <f t="shared" si="2"/>
         <v>0.63999483590371553</v>
       </c>
       <c r="I30">
-        <f>E$5*($E29/$E30)</f>
+        <f t="shared" si="3"/>
         <v>0.99999193109955542</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="C31">
-        <f t="shared" ref="C31:C38" si="15">POWER(C$5,B31)</f>
+        <f t="shared" ref="C31:C38" si="19">POWER(C$5,B31)</f>
         <v>1</v>
       </c>
       <c r="D31">
-        <f t="shared" ref="D31:D38" si="16">C31+D30*D$5</f>
+        <f t="shared" ref="D31:D38" si="20">C31+D30*D$5</f>
         <v>414097.52940788888</v>
       </c>
       <c r="E31">
-        <f t="shared" ref="E31:E38" si="17">D31+E30*E$5</f>
+        <f t="shared" ref="E31:E38" si="21">D31+E30*E$5</f>
         <v>80188022267.194321</v>
       </c>
       <c r="G31">
-        <f>C$5*($E30/$E31)</f>
+        <f t="shared" si="15"/>
         <v>0.39999793436716508</v>
       </c>
       <c r="H31">
-        <f>D$5*($E30/$E31)</f>
+        <f t="shared" si="2"/>
         <v>0.63999669498746414</v>
       </c>
       <c r="I31">
-        <f>E$5*($E30/$E31)</f>
+        <f t="shared" si="3"/>
         <v>0.99999483591791272</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="C32">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="20"/>
+        <v>662557.04705262231</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="21"/>
+        <v>200470718225.03287</v>
+      </c>
+      <c r="G32">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="D32">
-        <f t="shared" si="16"/>
-        <v>662557.04705262231</v>
-      </c>
-      <c r="E32">
-        <f t="shared" si="17"/>
-        <v>200470718225.03287</v>
-      </c>
-      <c r="G32">
-        <f>C$5*($E31/$E32)</f>
         <v>0.39999867799735955</v>
       </c>
       <c r="H32">
-        <f>D$5*($E31/$E32)</f>
+        <f t="shared" si="2"/>
         <v>0.63999788479577535</v>
       </c>
       <c r="I32">
-        <f>E$5*($E31/$E32)</f>
+        <f t="shared" si="3"/>
         <v>0.99999669499339894</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>27</v>
       </c>
       <c r="C33">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="20"/>
+        <v>1060092.2752841958</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="21"/>
+        <v>501177855654.85742</v>
+      </c>
+      <c r="G33">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="D33">
-        <f t="shared" si="16"/>
-        <v>1060092.2752841958</v>
-      </c>
-      <c r="E33">
-        <f t="shared" si="17"/>
-        <v>501177855654.85742</v>
-      </c>
-      <c r="G33">
-        <f>C$5*($E32/$E33)</f>
         <v>0.39999915391930169</v>
       </c>
       <c r="H33">
-        <f>D$5*($E32/$E33)</f>
+        <f t="shared" si="2"/>
         <v>0.63999864627088277</v>
       </c>
       <c r="I33">
-        <f>E$5*($E32/$E33)</f>
+        <f t="shared" si="3"/>
         <v>0.99999788479825424</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
       <c r="C34">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="20"/>
+        <v>1696148.6404547133</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="21"/>
+        <v>1252946335285.7839</v>
+      </c>
+      <c r="G34">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="D34">
-        <f t="shared" si="16"/>
-        <v>1696148.6404547133</v>
-      </c>
-      <c r="E34">
-        <f t="shared" si="17"/>
-        <v>1252946335285.7839</v>
-      </c>
-      <c r="G34">
-        <f>C$5*($E33/$E34)</f>
         <v>0.39999945850876684</v>
       </c>
       <c r="H34">
-        <f>D$5*($E33/$E34)</f>
+        <f t="shared" si="2"/>
         <v>0.63999913361402694</v>
       </c>
       <c r="I34">
-        <f>E$5*($E33/$E34)</f>
+        <f t="shared" si="3"/>
         <v>0.99999864627191704</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>29</v>
       </c>
       <c r="C35">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="20"/>
+        <v>2713838.8247275413</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="21"/>
+        <v>3132368552053.2847</v>
+      </c>
+      <c r="G35">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="D35">
-        <f t="shared" si="16"/>
-        <v>2713838.8247275413</v>
-      </c>
-      <c r="E35">
-        <f t="shared" si="17"/>
-        <v>3132368552053.2847</v>
-      </c>
-      <c r="G35">
-        <f>C$5*($E34/$E35)</f>
         <v>0.39999965344578331</v>
       </c>
       <c r="H35">
-        <f>D$5*($E34/$E35)</f>
+        <f t="shared" si="2"/>
         <v>0.63999944551325338</v>
       </c>
       <c r="I35">
-        <f>E$5*($E34/$E35)</f>
+        <f t="shared" si="3"/>
         <v>0.99999913361445825</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
       <c r="C36">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="20"/>
+        <v>4342143.1195640666</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="21"/>
+        <v>7830925722276.3311</v>
+      </c>
+      <c r="G36">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="D36">
-        <f t="shared" si="16"/>
-        <v>4342143.1195640666</v>
-      </c>
-      <c r="E36">
-        <f t="shared" si="17"/>
-        <v>7830925722276.3311</v>
-      </c>
-      <c r="G36">
-        <f>C$5*($E35/$E36)</f>
         <v>0.39999977820537325</v>
       </c>
       <c r="H36">
-        <f>D$5*($E35/$E36)</f>
+        <f t="shared" si="2"/>
         <v>0.63999964512859719</v>
       </c>
       <c r="I36">
-        <f>E$5*($E35/$E36)</f>
+        <f t="shared" si="3"/>
         <v>0.99999944551343312</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>31</v>
       </c>
       <c r="C37">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="20"/>
+        <v>6947429.991302507</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="21"/>
+        <v>19577321253120.82</v>
+      </c>
+      <c r="G37">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="D37">
-        <f t="shared" si="16"/>
-        <v>6947429.991302507</v>
-      </c>
-      <c r="E37">
-        <f t="shared" si="17"/>
-        <v>19577321253120.82</v>
-      </c>
-      <c r="G37">
-        <f>C$5*($E36/$E37)</f>
         <v>0.39999985805146876</v>
       </c>
       <c r="H37">
-        <f>D$5*($E36/$E37)</f>
+        <f t="shared" si="2"/>
         <v>0.6399997728823501</v>
       </c>
       <c r="I37">
-        <f>E$5*($E36/$E37)</f>
+        <f t="shared" si="3"/>
         <v>0.9999996451286719</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>32</v>
       </c>
       <c r="C38">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="20"/>
+        <v>11115888.986084012</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="21"/>
+        <v>48943314248691.031</v>
+      </c>
+      <c r="G38">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="D38">
-        <f t="shared" si="16"/>
-        <v>11115888.986084012</v>
-      </c>
-      <c r="E38">
-        <f t="shared" si="17"/>
-        <v>48943314248691.031</v>
-      </c>
-      <c r="G38">
-        <f>C$5*($E37/$E38)</f>
         <v>0.39999990915295253</v>
       </c>
       <c r="H38">
-        <f>D$5*($E37/$E38)</f>
+        <f t="shared" si="2"/>
         <v>0.63999985464472409</v>
       </c>
       <c r="I38">
-        <f>E$5*($E37/$E38)</f>
+        <f t="shared" si="3"/>
         <v>0.99999977288238129</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>33</v>
       </c>
       <c r="C39">
-        <f t="shared" ref="C39:C46" si="18">POWER(C$5,B39)</f>
+        <f t="shared" ref="C39:C46" si="22">POWER(C$5,B39)</f>
         <v>1</v>
       </c>
       <c r="D39">
-        <f t="shared" ref="D39:D46" si="19">C39+D38*D$5</f>
+        <f t="shared" ref="D39:D46" si="23">C39+D38*D$5</f>
         <v>17785423.377734419</v>
       </c>
       <c r="E39">
-        <f t="shared" ref="E39:E46" si="20">D39+E38*E$5</f>
+        <f t="shared" ref="E39:E46" si="24">D39+E38*E$5</f>
         <v>122358303407150.95</v>
       </c>
       <c r="G39">
-        <f>C$5*($E38/$E39)</f>
+        <f t="shared" si="15"/>
         <v>0.39999994185789478</v>
       </c>
       <c r="H39">
-        <f>D$5*($E38/$E39)</f>
+        <f t="shared" si="2"/>
         <v>0.63999990697263165</v>
       </c>
       <c r="I39">
-        <f>E$5*($E38/$E39)</f>
+        <f t="shared" si="3"/>
         <v>0.99999985464473695</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>34</v>
       </c>
       <c r="C40">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="D40">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>28456678.404375073</v>
       </c>
       <c r="E40">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>305895786974555.75</v>
       </c>
       <c r="G40">
-        <f>C$5*($E39/$E40)</f>
+        <f t="shared" si="15"/>
         <v>0.39999996278905486</v>
       </c>
       <c r="H40">
-        <f>D$5*($E39/$E40)</f>
+        <f t="shared" si="2"/>
         <v>0.63999994046248787</v>
       </c>
       <c r="I40">
-        <f>E$5*($E39/$E40)</f>
+        <f t="shared" si="3"/>
         <v>0.99999990697263719</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>35</v>
       </c>
       <c r="C41">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="D41">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>45530686.447000116</v>
       </c>
       <c r="E41">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>764739512967075.88</v>
       </c>
       <c r="G41">
-        <f>C$5*($E40/$E41)</f>
+        <f t="shared" si="15"/>
         <v>0.39999997618499594</v>
       </c>
       <c r="H41">
-        <f>D$5*($E40/$E41)</f>
+        <f t="shared" si="2"/>
         <v>0.63999996189599351</v>
       </c>
       <c r="I41">
-        <f>E$5*($E40/$E41)</f>
+        <f t="shared" si="3"/>
         <v>0.99999994046248986</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>36</v>
       </c>
       <c r="C42">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="D42">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>72849099.315200195</v>
       </c>
       <c r="E42">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1911848855266789</v>
       </c>
       <c r="G42">
-        <f>C$5*($E41/$E42)</f>
+        <f t="shared" si="15"/>
         <v>0.39999998475839782</v>
       </c>
       <c r="H42">
-        <f>D$5*($E41/$E42)</f>
+        <f t="shared" si="2"/>
         <v>0.63999997561343658</v>
       </c>
       <c r="I42">
-        <f>E$5*($E41/$E42)</f>
+        <f t="shared" si="3"/>
         <v>0.99999996189599449</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>37</v>
       </c>
       <c r="C43">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="D43">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>116558559.90432031</v>
       </c>
       <c r="E43">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>4779622254725532</v>
       </c>
       <c r="G43">
-        <f>C$5*($E42/$E43)</f>
+        <f t="shared" si="15"/>
         <v>0.3999999902453748</v>
       </c>
       <c r="H43">
-        <f>D$5*($E42/$E43)</f>
+        <f t="shared" si="2"/>
         <v>0.63999998439259975</v>
       </c>
       <c r="I43">
-        <f>E$5*($E42/$E43)</f>
+        <f t="shared" si="3"/>
         <v>0.99999997561343701</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>38</v>
       </c>
       <c r="C44">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="D44">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>186493696.8469125</v>
       </c>
       <c r="E44">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1.1949055823307526E+16</v>
       </c>
       <c r="G44">
-        <f>C$5*($E43/$E44)</f>
+        <f t="shared" si="15"/>
         <v>0.39999999375703993</v>
       </c>
       <c r="H44">
-        <f>D$5*($E43/$E44)</f>
+        <f t="shared" si="2"/>
         <v>0.63999999001126395</v>
       </c>
       <c r="I44">
-        <f>E$5*($E43/$E44)</f>
+        <f t="shared" si="3"/>
         <v>0.99999998439259985</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>39</v>
       </c>
       <c r="C45">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="D45">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>298389915.95506001</v>
       </c>
       <c r="E45">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2.9872639856658732E+16</v>
       </c>
       <c r="G45">
-        <f>C$5*($E44/$E45)</f>
+        <f t="shared" si="15"/>
         <v>0.39999999600450553</v>
       </c>
       <c r="H45">
-        <f>D$5*($E44/$E45)</f>
+        <f t="shared" si="2"/>
         <v>0.63999999360720894</v>
       </c>
       <c r="I45">
-        <f>E$5*($E44/$E45)</f>
+        <f t="shared" si="3"/>
         <v>0.99999999001126383</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B46">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>40</v>
       </c>
       <c r="C46">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="D46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>477423866.52809602</v>
       </c>
       <c r="E46">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>7.4681600119070704E+16</v>
       </c>
       <c r="G46">
-        <f>C$5*($E45/$E46)</f>
+        <f t="shared" si="15"/>
         <v>0.3999999974428835</v>
       </c>
       <c r="H46">
-        <f>D$5*($E45/$E46)</f>
+        <f t="shared" si="2"/>
         <v>0.63999999590861367</v>
       </c>
       <c r="I46">
-        <f>E$5*($E45/$E46)</f>
+        <f t="shared" si="3"/>
         <v>0.99999999360720881</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="G3:I3"/>
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="K11:N11"/>
+    <mergeCell ref="K14:N14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="2">
